--- a/artifacts.xlsx
+++ b/artifacts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陽陽\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陽陽\Desktop\測試\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7733BE9-44A8-432B-A139-505A513E71B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103A63BA-12FC-4A78-949A-E44DE3256B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="104">
   <si>
     <t>Artifact</t>
   </si>
@@ -238,9 +238,6 @@
     <t>黃金肉桂粉</t>
   </si>
   <si>
-    <t>龍夢</t>
-  </si>
-  <si>
     <t>金</t>
   </si>
   <si>
@@ -287,6 +284,70 @@
   </si>
   <si>
     <t>步兵生命力</t>
+  </si>
+  <si>
+    <t>龍蔘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激浪頭盔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>騎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>馴龍指南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者之酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇觀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗犄角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳凰的羽毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁花的恩惠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預言石碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真王兵法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾娜希古曆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾娜希羅盤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -661,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -710,19 +771,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -733,19 +794,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -756,19 +817,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -779,19 +840,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <v>24</v>
@@ -802,19 +863,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -825,19 +886,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -848,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -871,19 +932,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -894,19 +955,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10">
         <v>24</v>
@@ -917,19 +978,19 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -940,19 +1001,19 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -963,19 +1024,19 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
         <v>79</v>
       </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13">
         <v>30</v>
@@ -986,19 +1047,19 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1009,19 +1070,19 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15">
         <v>12</v>
@@ -1032,19 +1093,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16">
         <v>24</v>
@@ -1055,19 +1116,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -1078,19 +1139,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -1101,19 +1162,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19">
         <v>12</v>
@@ -1124,19 +1185,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -1147,19 +1208,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -1170,19 +1231,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -1193,19 +1254,19 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -1216,19 +1277,19 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24">
         <v>24</v>
@@ -1239,19 +1300,19 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -1262,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26">
         <v>12</v>
@@ -1285,19 +1346,19 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27">
         <v>12</v>
@@ -1308,19 +1369,19 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
         <v>79</v>
       </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G28">
         <v>30</v>
@@ -1331,19 +1392,19 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29">
         <v>30</v>
@@ -1354,19 +1415,19 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
         <v>79</v>
       </c>
-      <c r="E30" t="s">
-        <v>80</v>
-      </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -1377,19 +1438,19 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
         <v>79</v>
       </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31">
         <v>12</v>
@@ -1400,19 +1461,19 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>12</v>
@@ -1423,19 +1484,19 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33">
         <v>12</v>
@@ -1446,19 +1507,19 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34">
         <v>16</v>
@@ -1469,19 +1530,19 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
         <v>79</v>
       </c>
-      <c r="E35" t="s">
-        <v>80</v>
-      </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35">
         <v>16</v>
@@ -1492,19 +1553,19 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -1515,19 +1576,19 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -1538,19 +1599,19 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38">
         <v>16</v>
@@ -1561,19 +1622,19 @@
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39">
         <v>12</v>
@@ -1584,19 +1645,19 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -1607,19 +1668,19 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -1630,19 +1691,19 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42">
         <v>12</v>
@@ -1653,19 +1714,19 @@
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43">
         <v>12</v>
@@ -1676,19 +1737,19 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -1699,19 +1760,19 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -1722,19 +1783,19 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G46">
         <v>12</v>
@@ -1745,19 +1806,19 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" t="s">
         <v>79</v>
       </c>
-      <c r="E47" t="s">
-        <v>80</v>
-      </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -1768,19 +1829,19 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48">
         <v>12</v>
@@ -1791,19 +1852,19 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G49">
         <v>10</v>
@@ -1814,19 +1875,19 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" t="s">
         <v>79</v>
       </c>
-      <c r="E50" t="s">
-        <v>80</v>
-      </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -1837,19 +1898,19 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51">
         <v>10</v>
@@ -1860,19 +1921,19 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52">
         <v>24</v>
@@ -1883,19 +1944,19 @@
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53">
         <v>16</v>
@@ -1906,19 +1967,19 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G54">
         <v>16</v>
@@ -1929,19 +1990,19 @@
         <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" t="s">
         <v>79</v>
       </c>
-      <c r="E55" t="s">
-        <v>80</v>
-      </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G55">
         <v>30</v>
@@ -1952,19 +2013,19 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G56">
         <v>12</v>
@@ -1975,19 +2036,19 @@
         <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G57">
         <v>24</v>
@@ -1998,19 +2059,19 @@
         <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58">
         <v>24</v>
@@ -2021,19 +2082,19 @@
         <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G59">
         <v>10</v>
@@ -2044,19 +2105,19 @@
         <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G60">
         <v>24</v>
@@ -2067,19 +2128,19 @@
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" t="s">
         <v>79</v>
       </c>
-      <c r="E61" t="s">
-        <v>80</v>
-      </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61">
         <v>10</v>
@@ -2090,19 +2151,19 @@
         <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62">
         <v>8.4443999999999999</v>
@@ -2113,19 +2174,19 @@
         <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G63">
         <v>11.222200000000001</v>
@@ -2136,19 +2197,19 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G64">
         <v>30</v>
@@ -2159,19 +2220,19 @@
         <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G65">
         <v>30</v>
@@ -2182,19 +2243,19 @@
         <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G66">
         <v>16</v>
@@ -2205,19 +2266,19 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" t="s">
         <v>79</v>
       </c>
-      <c r="E67" t="s">
-        <v>80</v>
-      </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G67">
         <v>16</v>
@@ -2228,19 +2289,19 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G68">
         <v>16</v>
@@ -2251,19 +2312,19 @@
         <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G69">
         <v>12</v>
@@ -2274,19 +2335,19 @@
         <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G70">
         <v>24</v>
@@ -2297,19 +2358,19 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71">
         <v>10</v>
@@ -2320,19 +2381,19 @@
         <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G72">
         <v>10</v>
@@ -2343,19 +2404,19 @@
         <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G73">
         <v>10</v>
@@ -2366,19 +2427,19 @@
         <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G74">
         <v>12</v>
@@ -2389,19 +2450,19 @@
         <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G75">
         <v>16</v>
@@ -2412,19 +2473,19 @@
         <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -2435,19 +2496,19 @@
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G77">
         <v>10</v>
@@ -2458,19 +2519,19 @@
         <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G78">
         <v>24</v>
@@ -2481,19 +2542,19 @@
         <v>55</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G79">
         <v>20</v>
@@ -2504,19 +2565,19 @@
         <v>55</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G80">
         <v>16</v>
@@ -2527,19 +2588,19 @@
         <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G81">
         <v>18</v>
@@ -2550,19 +2611,19 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G82">
         <v>18</v>
@@ -2573,19 +2634,19 @@
         <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G83">
         <v>24</v>
@@ -2596,19 +2657,19 @@
         <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G84">
         <v>16</v>
@@ -2619,19 +2680,19 @@
         <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G85">
         <v>24</v>
@@ -2642,19 +2703,19 @@
         <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" t="s">
         <v>79</v>
       </c>
-      <c r="E86" t="s">
-        <v>80</v>
-      </c>
       <c r="F86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G86">
         <v>16</v>
@@ -2665,19 +2726,19 @@
         <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -2688,19 +2749,19 @@
         <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G88">
         <v>24</v>
@@ -2711,19 +2772,19 @@
         <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G89">
         <v>10</v>
@@ -2734,19 +2795,19 @@
         <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G90">
         <v>20</v>
@@ -2757,19 +2818,19 @@
         <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" t="s">
         <v>79</v>
       </c>
-      <c r="E91" t="s">
-        <v>80</v>
-      </c>
       <c r="F91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G91">
         <v>16</v>
@@ -2780,19 +2841,19 @@
         <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G92">
         <v>12</v>
@@ -2803,19 +2864,19 @@
         <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G93">
         <v>12</v>
@@ -2826,19 +2887,19 @@
         <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G94">
         <v>24</v>
@@ -2849,19 +2910,19 @@
         <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D95" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" t="s">
         <v>79</v>
       </c>
-      <c r="E95" t="s">
-        <v>80</v>
-      </c>
       <c r="F95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G95">
         <v>16</v>
@@ -2872,19 +2933,19 @@
         <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -2895,19 +2956,19 @@
         <v>66</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -2918,19 +2979,19 @@
         <v>66</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G98">
         <v>10</v>
@@ -2941,19 +3002,19 @@
         <v>67</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G99">
         <v>30</v>
@@ -2964,19 +3025,19 @@
         <v>68</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G100">
         <v>24</v>
@@ -2987,19 +3048,19 @@
         <v>69</v>
       </c>
       <c r="B101" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G101">
         <v>12</v>
@@ -3010,19 +3071,19 @@
         <v>69</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G102">
         <v>16</v>
@@ -3033,19 +3094,19 @@
         <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G103">
         <v>20</v>
@@ -3056,19 +3117,19 @@
         <v>70</v>
       </c>
       <c r="B104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G104">
         <v>16</v>
@@ -3079,19 +3140,19 @@
         <v>71</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D105" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" t="s">
         <v>79</v>
       </c>
-      <c r="E105" t="s">
-        <v>80</v>
-      </c>
       <c r="F105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G105">
         <v>16</v>
@@ -3099,22 +3160,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G106">
         <v>16</v>
@@ -3122,24 +3183,691 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C107" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" t="s">
+        <v>78</v>
+      </c>
+      <c r="E107" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107" t="s">
+        <v>87</v>
+      </c>
+      <c r="G107">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" t="s">
+        <v>90</v>
+      </c>
+      <c r="C108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108" t="s">
+        <v>78</v>
+      </c>
+      <c r="E108" t="s">
+        <v>91</v>
+      </c>
+      <c r="F108" t="s">
+        <v>87</v>
+      </c>
+      <c r="G108">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" t="s">
+        <v>78</v>
+      </c>
+      <c r="E109" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" t="s">
+        <v>85</v>
+      </c>
+      <c r="G109">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" t="s">
+        <v>74</v>
+      </c>
+      <c r="D110" t="s">
+        <v>78</v>
+      </c>
+      <c r="E110" t="s">
+        <v>93</v>
+      </c>
+      <c r="F110" t="s">
+        <v>87</v>
+      </c>
+      <c r="G110">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" t="s">
+        <v>77</v>
+      </c>
+      <c r="E111" t="s">
+        <v>91</v>
+      </c>
+      <c r="F111" t="s">
+        <v>82</v>
+      </c>
+      <c r="G111">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" t="s">
+        <v>77</v>
+      </c>
+      <c r="E112" t="s">
+        <v>92</v>
+      </c>
+      <c r="F112" t="s">
+        <v>86</v>
+      </c>
+      <c r="G112">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" t="s">
+        <v>90</v>
+      </c>
+      <c r="C113" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" t="s">
+        <v>77</v>
+      </c>
+      <c r="E113" t="s">
+        <v>93</v>
+      </c>
+      <c r="F113" t="s">
+        <v>83</v>
+      </c>
+      <c r="G113">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" t="s">
+        <v>90</v>
+      </c>
+      <c r="C114" t="s">
+        <v>96</v>
+      </c>
+      <c r="D114" t="s">
+        <v>77</v>
+      </c>
+      <c r="E114" t="s">
+        <v>92</v>
+      </c>
+      <c r="F114" t="s">
+        <v>86</v>
+      </c>
+      <c r="G114">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>95</v>
+      </c>
+      <c r="B115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" t="s">
+        <v>77</v>
+      </c>
+      <c r="E115" t="s">
+        <v>91</v>
+      </c>
+      <c r="F115" t="s">
+        <v>82</v>
+      </c>
+      <c r="G115">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C116" t="s">
+        <v>96</v>
+      </c>
+      <c r="D116" t="s">
+        <v>78</v>
+      </c>
+      <c r="E116" t="s">
+        <v>80</v>
+      </c>
+      <c r="F116" t="s">
+        <v>84</v>
+      </c>
+      <c r="G116">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" t="s">
+        <v>90</v>
+      </c>
+      <c r="C117" t="s">
+        <v>96</v>
+      </c>
+      <c r="D117" t="s">
+        <v>77</v>
+      </c>
+      <c r="E117" t="s">
+        <v>80</v>
+      </c>
+      <c r="F117" t="s">
+        <v>83</v>
+      </c>
+      <c r="G117">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>97</v>
+      </c>
+      <c r="B118" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D118" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118" t="s">
+        <v>92</v>
+      </c>
+      <c r="F118" t="s">
+        <v>86</v>
+      </c>
+      <c r="G118">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" t="s">
+        <v>91</v>
+      </c>
+      <c r="F119" t="s">
+        <v>87</v>
+      </c>
+      <c r="G119">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>98</v>
+      </c>
+      <c r="B120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" t="s">
+        <v>77</v>
+      </c>
+      <c r="E120" t="s">
+        <v>91</v>
+      </c>
+      <c r="F120" t="s">
+        <v>82</v>
+      </c>
+      <c r="G120">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" t="s">
+        <v>77</v>
+      </c>
+      <c r="E121" t="s">
+        <v>80</v>
+      </c>
+      <c r="F121" t="s">
+        <v>83</v>
+      </c>
+      <c r="G121">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122" t="s">
+        <v>96</v>
+      </c>
+      <c r="D122" t="s">
+        <v>78</v>
+      </c>
+      <c r="E122" t="s">
+        <v>92</v>
+      </c>
+      <c r="F122" t="s">
+        <v>85</v>
+      </c>
+      <c r="G122">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D123" t="s">
+        <v>77</v>
+      </c>
+      <c r="E123" t="s">
+        <v>92</v>
+      </c>
+      <c r="F123" t="s">
+        <v>86</v>
+      </c>
+      <c r="G123">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B124" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" t="s">
+        <v>77</v>
+      </c>
+      <c r="E124" t="s">
+        <v>91</v>
+      </c>
+      <c r="F124" t="s">
+        <v>82</v>
+      </c>
+      <c r="G124">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>100</v>
+      </c>
+      <c r="B125" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" t="s">
+        <v>74</v>
+      </c>
+      <c r="D125" t="s">
+        <v>77</v>
+      </c>
+      <c r="E125" t="s">
+        <v>80</v>
+      </c>
+      <c r="F125" t="s">
+        <v>83</v>
+      </c>
+      <c r="G125">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>100</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" t="s">
+        <v>74</v>
+      </c>
+      <c r="D126" t="s">
+        <v>77</v>
+      </c>
+      <c r="E126" t="s">
+        <v>92</v>
+      </c>
+      <c r="F126" t="s">
+        <v>86</v>
+      </c>
+      <c r="G126">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" t="s">
+        <v>78</v>
+      </c>
+      <c r="E127" t="s">
+        <v>91</v>
+      </c>
+      <c r="F127" t="s">
+        <v>87</v>
+      </c>
+      <c r="G127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" t="s">
+        <v>74</v>
+      </c>
+      <c r="D128" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" t="s">
+        <v>91</v>
+      </c>
+      <c r="F128" t="s">
+        <v>82</v>
+      </c>
+      <c r="G128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" t="s">
+        <v>74</v>
+      </c>
+      <c r="D129" t="s">
+        <v>77</v>
+      </c>
+      <c r="E129" t="s">
+        <v>92</v>
+      </c>
+      <c r="F129" t="s">
+        <v>86</v>
+      </c>
+      <c r="G129">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>101</v>
+      </c>
+      <c r="B130" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130" t="s">
+        <v>74</v>
+      </c>
+      <c r="D130" t="s">
+        <v>78</v>
+      </c>
+      <c r="E130" t="s">
+        <v>93</v>
+      </c>
+      <c r="F130" t="s">
+        <v>84</v>
+      </c>
+      <c r="G130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" t="s">
+        <v>74</v>
+      </c>
+      <c r="D131" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" t="s">
+        <v>91</v>
+      </c>
+      <c r="F131" t="s">
+        <v>82</v>
+      </c>
+      <c r="G131">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" t="s">
+        <v>74</v>
+      </c>
+      <c r="D132" t="s">
+        <v>77</v>
+      </c>
+      <c r="E132" t="s">
+        <v>80</v>
+      </c>
+      <c r="F132" t="s">
+        <v>83</v>
+      </c>
+      <c r="G132">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133" t="s">
+        <v>74</v>
+      </c>
+      <c r="D133" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" t="s">
+        <v>92</v>
+      </c>
+      <c r="F133" t="s">
+        <v>86</v>
+      </c>
+      <c r="G133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C134" t="s">
         <v>76</v>
       </c>
-      <c r="D107" t="s">
-        <v>79</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D134" t="s">
+        <v>77</v>
+      </c>
+      <c r="E134" t="s">
+        <v>91</v>
+      </c>
+      <c r="F134" t="s">
+        <v>82</v>
+      </c>
+      <c r="G134">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>103</v>
+      </c>
+      <c r="B135" t="s">
+        <v>90</v>
+      </c>
+      <c r="C135" t="s">
+        <v>76</v>
+      </c>
+      <c r="D135" t="s">
+        <v>77</v>
+      </c>
+      <c r="E135" t="s">
         <v>80</v>
       </c>
-      <c r="F107" t="s">
-        <v>88</v>
-      </c>
-      <c r="G107">
+      <c r="F135" t="s">
+        <v>83</v>
+      </c>
+      <c r="G135">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>103</v>
+      </c>
+      <c r="B136" t="s">
+        <v>90</v>
+      </c>
+      <c r="C136" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" t="s">
+        <v>77</v>
+      </c>
+      <c r="E136" t="s">
+        <v>92</v>
+      </c>
+      <c r="F136" t="s">
+        <v>86</v>
+      </c>
+      <c r="G136">
         <v>16</v>
       </c>
     </row>

--- a/artifacts.xlsx
+++ b/artifacts.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陽陽\Desktop\測試\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103A63BA-12FC-4A78-949A-E44DE3256B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16FA6B4-B9D6-4D38-839A-4EA2335528D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artifact_lines" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="181">
   <si>
     <t>Artifact</t>
   </si>
@@ -347,6 +361,276 @@
   </si>
   <si>
     <t>艾娜希羅盤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅炎蕾絲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血戰詠嘆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密林之窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮血王座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍心藥爐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾魂鍊墜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇蹟薑餅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永凍之花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶翩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇王血清</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>騎士誓約</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紀錄者甜點</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花精靈之淚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火頭盔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>後顧無憂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鵝之願</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>獨角獸之角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱情精油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精靈之水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海妖特調</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀河水晶瓶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙精靈毛毯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人魚女王像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凱旋雕像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印密典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先知水晶球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>記憶之梳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>噩夢捕手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪徒寶珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星火之鐲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家手杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈的意志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明女神像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹森</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決鬥的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈的意志</t>
+  </si>
+  <si>
+    <t>人魚女王像</t>
+  </si>
+  <si>
+    <t>先知水晶球</t>
+  </si>
+  <si>
+    <t>光明女神像</t>
+  </si>
+  <si>
+    <t>凱旋雕像</t>
+  </si>
+  <si>
+    <t>刀刃護甲</t>
+  </si>
+  <si>
+    <t>勾魂鍊墜</t>
+  </si>
+  <si>
+    <t>古神秘語</t>
+  </si>
+  <si>
+    <t>天鵝之頸</t>
+  </si>
+  <si>
+    <t>奇蹟薑餅</t>
+  </si>
+  <si>
+    <t>封印密典</t>
+  </si>
+  <si>
+    <t>巨牙棋</t>
+  </si>
+  <si>
+    <t>彩虹森音盒</t>
+  </si>
+  <si>
+    <t>後顧無憂</t>
+  </si>
+  <si>
+    <t>惡夢捕手</t>
+  </si>
+  <si>
+    <t>星火之鍊</t>
+  </si>
+  <si>
+    <t>時之毯</t>
+  </si>
+  <si>
+    <t>永凍之花</t>
+  </si>
+  <si>
+    <t>決鬥的信號</t>
+  </si>
+  <si>
+    <t>沙之精靈毛毯</t>
+  </si>
+  <si>
+    <t>海妖特調</t>
+  </si>
+  <si>
+    <t>海妖詠嘆調</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱情精油</t>
+  </si>
+  <si>
+    <t>獨角獸之角</t>
+  </si>
+  <si>
+    <t>異界玫瑰油</t>
+  </si>
+  <si>
+    <t>精靈之水</t>
+  </si>
+  <si>
+    <t>花精靈之淚</t>
+  </si>
+  <si>
+    <t>蛇王血清</t>
+  </si>
+  <si>
+    <t>蝶翎</t>
+  </si>
+  <si>
+    <t>記憶之梳</t>
+  </si>
+  <si>
+    <t>記錄者甜點</t>
+  </si>
+  <si>
+    <t>詛咒魔偶</t>
+  </si>
+  <si>
+    <t>邪徒寶珠</t>
+  </si>
+  <si>
+    <t>銀河水晶瓶</t>
+  </si>
+  <si>
+    <t>開拓之樹</t>
+  </si>
+  <si>
+    <t>防火頭盔</t>
+  </si>
+  <si>
+    <t>騎士誓約</t>
+  </si>
+  <si>
+    <t>黃金泉眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鵝之願</t>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅魯梅克菱蔾</t>
+  </si>
+  <si>
+    <t>沃爾頓的崛起</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2166,7 +2450,7 @@
         <v>86</v>
       </c>
       <c r="G62">
-        <v>8.4443999999999999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2189,7 +2473,7 @@
         <v>85</v>
       </c>
       <c r="G63">
-        <v>11.222200000000001</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -3869,6 +4153,1723 @@
       </c>
       <c r="G136">
         <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>104</v>
+      </c>
+      <c r="B137" t="s">
+        <v>90</v>
+      </c>
+      <c r="C137" t="s">
+        <v>74</v>
+      </c>
+      <c r="D137" t="s">
+        <v>77</v>
+      </c>
+      <c r="E137" t="s">
+        <v>92</v>
+      </c>
+      <c r="F137" t="s">
+        <v>86</v>
+      </c>
+      <c r="G137">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>104</v>
+      </c>
+      <c r="B138" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138" t="s">
+        <v>74</v>
+      </c>
+      <c r="D138" t="s">
+        <v>77</v>
+      </c>
+      <c r="E138" t="s">
+        <v>91</v>
+      </c>
+      <c r="F138" t="s">
+        <v>82</v>
+      </c>
+      <c r="G138">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>104</v>
+      </c>
+      <c r="B139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C139" t="s">
+        <v>74</v>
+      </c>
+      <c r="D139" t="s">
+        <v>78</v>
+      </c>
+      <c r="E139" t="s">
+        <v>80</v>
+      </c>
+      <c r="F139" t="s">
+        <v>84</v>
+      </c>
+      <c r="G139">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>105</v>
+      </c>
+      <c r="B140" t="s">
+        <v>90</v>
+      </c>
+      <c r="C140" t="s">
+        <v>76</v>
+      </c>
+      <c r="D140" t="s">
+        <v>77</v>
+      </c>
+      <c r="E140" t="s">
+        <v>91</v>
+      </c>
+      <c r="F140" t="s">
+        <v>82</v>
+      </c>
+      <c r="G140">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>105</v>
+      </c>
+      <c r="B141" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" t="s">
+        <v>76</v>
+      </c>
+      <c r="D141" t="s">
+        <v>77</v>
+      </c>
+      <c r="E141" t="s">
+        <v>80</v>
+      </c>
+      <c r="F141" t="s">
+        <v>83</v>
+      </c>
+      <c r="G141">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>105</v>
+      </c>
+      <c r="B142" t="s">
+        <v>90</v>
+      </c>
+      <c r="C142" t="s">
+        <v>76</v>
+      </c>
+      <c r="D142" t="s">
+        <v>78</v>
+      </c>
+      <c r="E142" t="s">
+        <v>92</v>
+      </c>
+      <c r="F142" t="s">
+        <v>85</v>
+      </c>
+      <c r="G142">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>106</v>
+      </c>
+      <c r="B143" t="s">
+        <v>90</v>
+      </c>
+      <c r="C143" t="s">
+        <v>74</v>
+      </c>
+      <c r="D143" t="s">
+        <v>77</v>
+      </c>
+      <c r="E143" t="s">
+        <v>80</v>
+      </c>
+      <c r="F143" t="s">
+        <v>83</v>
+      </c>
+      <c r="G143">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>106</v>
+      </c>
+      <c r="B144" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D144" t="s">
+        <v>77</v>
+      </c>
+      <c r="E144" t="s">
+        <v>92</v>
+      </c>
+      <c r="F144" t="s">
+        <v>86</v>
+      </c>
+      <c r="G144">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>106</v>
+      </c>
+      <c r="B145" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" t="s">
+        <v>74</v>
+      </c>
+      <c r="D145" t="s">
+        <v>78</v>
+      </c>
+      <c r="E145" t="s">
+        <v>91</v>
+      </c>
+      <c r="F145" t="s">
+        <v>87</v>
+      </c>
+      <c r="G145">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>107</v>
+      </c>
+      <c r="B146" t="s">
+        <v>90</v>
+      </c>
+      <c r="C146" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" t="s">
+        <v>80</v>
+      </c>
+      <c r="F146" t="s">
+        <v>83</v>
+      </c>
+      <c r="G146">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>107</v>
+      </c>
+      <c r="B147" t="s">
+        <v>90</v>
+      </c>
+      <c r="C147" t="s">
+        <v>76</v>
+      </c>
+      <c r="D147" t="s">
+        <v>77</v>
+      </c>
+      <c r="E147" t="s">
+        <v>92</v>
+      </c>
+      <c r="F147" t="s">
+        <v>86</v>
+      </c>
+      <c r="G147">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>107</v>
+      </c>
+      <c r="B148" t="s">
+        <v>90</v>
+      </c>
+      <c r="C148" t="s">
+        <v>76</v>
+      </c>
+      <c r="D148" t="s">
+        <v>78</v>
+      </c>
+      <c r="E148" t="s">
+        <v>91</v>
+      </c>
+      <c r="F148" t="s">
+        <v>87</v>
+      </c>
+      <c r="G148">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>108</v>
+      </c>
+      <c r="B149" t="s">
+        <v>90</v>
+      </c>
+      <c r="C149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" t="s">
+        <v>77</v>
+      </c>
+      <c r="E149" t="s">
+        <v>92</v>
+      </c>
+      <c r="F149" t="s">
+        <v>86</v>
+      </c>
+      <c r="G149">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>108</v>
+      </c>
+      <c r="B150" t="s">
+        <v>90</v>
+      </c>
+      <c r="C150" t="s">
+        <v>76</v>
+      </c>
+      <c r="D150" t="s">
+        <v>77</v>
+      </c>
+      <c r="E150" t="s">
+        <v>91</v>
+      </c>
+      <c r="F150" t="s">
+        <v>87</v>
+      </c>
+      <c r="G150">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>108</v>
+      </c>
+      <c r="B151" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151" t="s">
+        <v>76</v>
+      </c>
+      <c r="D151" t="s">
+        <v>78</v>
+      </c>
+      <c r="E151" t="s">
+        <v>80</v>
+      </c>
+      <c r="F151" t="s">
+        <v>84</v>
+      </c>
+      <c r="G151">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>140</v>
+      </c>
+      <c r="B152" t="s">
+        <v>73</v>
+      </c>
+      <c r="C152" t="s">
+        <v>76</v>
+      </c>
+      <c r="D152" t="s">
+        <v>78</v>
+      </c>
+      <c r="E152" t="s">
+        <v>79</v>
+      </c>
+      <c r="F152" t="s">
+        <v>87</v>
+      </c>
+      <c r="G152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>144</v>
+      </c>
+      <c r="B153" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" t="s">
+        <v>76</v>
+      </c>
+      <c r="D153" t="s">
+        <v>78</v>
+      </c>
+      <c r="E153" t="s">
+        <v>79</v>
+      </c>
+      <c r="F153" t="s">
+        <v>87</v>
+      </c>
+      <c r="G153">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" t="s">
+        <v>76</v>
+      </c>
+      <c r="D154" t="s">
+        <v>77</v>
+      </c>
+      <c r="E154" t="s">
+        <v>80</v>
+      </c>
+      <c r="F154" t="s">
+        <v>83</v>
+      </c>
+      <c r="G154">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>139</v>
+      </c>
+      <c r="B155" t="s">
+        <v>73</v>
+      </c>
+      <c r="C155" t="s">
+        <v>76</v>
+      </c>
+      <c r="D155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E155" t="s">
+        <v>80</v>
+      </c>
+      <c r="F155" t="s">
+        <v>84</v>
+      </c>
+      <c r="G155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156" t="s">
+        <v>72</v>
+      </c>
+      <c r="C156" t="s">
+        <v>76</v>
+      </c>
+      <c r="D156" t="s">
+        <v>77</v>
+      </c>
+      <c r="E156" t="s">
+        <v>79</v>
+      </c>
+      <c r="F156" t="s">
+        <v>82</v>
+      </c>
+      <c r="G156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>145</v>
+      </c>
+      <c r="B157" t="s">
+        <v>72</v>
+      </c>
+      <c r="C157" t="s">
+        <v>76</v>
+      </c>
+      <c r="D157" t="s">
+        <v>78</v>
+      </c>
+      <c r="E157" t="s">
+        <v>79</v>
+      </c>
+      <c r="F157" t="s">
+        <v>87</v>
+      </c>
+      <c r="G157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" t="s">
+        <v>73</v>
+      </c>
+      <c r="C158" t="s">
+        <v>75</v>
+      </c>
+      <c r="D158" t="s">
+        <v>77</v>
+      </c>
+      <c r="E158" t="s">
+        <v>81</v>
+      </c>
+      <c r="F158" t="s">
+        <v>86</v>
+      </c>
+      <c r="G158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>177</v>
+      </c>
+      <c r="B159" t="s">
+        <v>178</v>
+      </c>
+      <c r="C159" t="s">
+        <v>75</v>
+      </c>
+      <c r="D159" t="s">
+        <v>77</v>
+      </c>
+      <c r="E159" t="s">
+        <v>81</v>
+      </c>
+      <c r="F159" t="s">
+        <v>86</v>
+      </c>
+      <c r="G159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>146</v>
+      </c>
+      <c r="B160" t="s">
+        <v>72</v>
+      </c>
+      <c r="C160" t="s">
+        <v>75</v>
+      </c>
+      <c r="D160" t="s">
+        <v>78</v>
+      </c>
+      <c r="E160" t="s">
+        <v>79</v>
+      </c>
+      <c r="F160" t="s">
+        <v>87</v>
+      </c>
+      <c r="G160">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" t="s">
+        <v>72</v>
+      </c>
+      <c r="C161" t="s">
+        <v>74</v>
+      </c>
+      <c r="D161" t="s">
+        <v>78</v>
+      </c>
+      <c r="E161" t="s">
+        <v>81</v>
+      </c>
+      <c r="F161" t="s">
+        <v>85</v>
+      </c>
+      <c r="G161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>150</v>
+      </c>
+      <c r="B162" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" t="s">
+        <v>76</v>
+      </c>
+      <c r="D162" t="s">
+        <v>77</v>
+      </c>
+      <c r="E162" t="s">
+        <v>79</v>
+      </c>
+      <c r="F162" t="s">
+        <v>82</v>
+      </c>
+      <c r="G162">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>150</v>
+      </c>
+      <c r="B163" t="s">
+        <v>72</v>
+      </c>
+      <c r="C163" t="s">
+        <v>76</v>
+      </c>
+      <c r="D163" t="s">
+        <v>77</v>
+      </c>
+      <c r="E163" t="s">
+        <v>80</v>
+      </c>
+      <c r="F163" t="s">
+        <v>83</v>
+      </c>
+      <c r="G163">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>156</v>
+      </c>
+      <c r="B164" t="s">
+        <v>72</v>
+      </c>
+      <c r="C164" t="s">
+        <v>76</v>
+      </c>
+      <c r="D164" t="s">
+        <v>77</v>
+      </c>
+      <c r="E164" t="s">
+        <v>79</v>
+      </c>
+      <c r="F164" t="s">
+        <v>82</v>
+      </c>
+      <c r="G164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>156</v>
+      </c>
+      <c r="B165" t="s">
+        <v>72</v>
+      </c>
+      <c r="C165" t="s">
+        <v>76</v>
+      </c>
+      <c r="D165" t="s">
+        <v>78</v>
+      </c>
+      <c r="E165" t="s">
+        <v>80</v>
+      </c>
+      <c r="F165" t="s">
+        <v>84</v>
+      </c>
+      <c r="G165">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166" t="s">
+        <v>73</v>
+      </c>
+      <c r="C166" t="s">
+        <v>74</v>
+      </c>
+      <c r="D166" t="s">
+        <v>78</v>
+      </c>
+      <c r="E166" t="s">
+        <v>81</v>
+      </c>
+      <c r="F166" t="s">
+        <v>85</v>
+      </c>
+      <c r="G166">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" t="s">
+        <v>75</v>
+      </c>
+      <c r="D167" t="s">
+        <v>78</v>
+      </c>
+      <c r="E167" t="s">
+        <v>81</v>
+      </c>
+      <c r="F167" t="s">
+        <v>85</v>
+      </c>
+      <c r="G167">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" t="s">
+        <v>73</v>
+      </c>
+      <c r="C168" t="s">
+        <v>76</v>
+      </c>
+      <c r="D168" t="s">
+        <v>78</v>
+      </c>
+      <c r="E168" t="s">
+        <v>79</v>
+      </c>
+      <c r="F168" t="s">
+        <v>87</v>
+      </c>
+      <c r="G168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169" t="s">
+        <v>72</v>
+      </c>
+      <c r="C169" t="s">
+        <v>76</v>
+      </c>
+      <c r="D169" t="s">
+        <v>77</v>
+      </c>
+      <c r="E169" t="s">
+        <v>79</v>
+      </c>
+      <c r="F169" t="s">
+        <v>82</v>
+      </c>
+      <c r="G169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>180</v>
+      </c>
+      <c r="B170" t="s">
+        <v>72</v>
+      </c>
+      <c r="C170" t="s">
+        <v>76</v>
+      </c>
+      <c r="D170" t="s">
+        <v>78</v>
+      </c>
+      <c r="E170" t="s">
+        <v>80</v>
+      </c>
+      <c r="F170" t="s">
+        <v>84</v>
+      </c>
+      <c r="G170">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>158</v>
+      </c>
+      <c r="B171" t="s">
+        <v>73</v>
+      </c>
+      <c r="C171" t="s">
+        <v>76</v>
+      </c>
+      <c r="D171" t="s">
+        <v>78</v>
+      </c>
+      <c r="E171" t="s">
+        <v>80</v>
+      </c>
+      <c r="F171" t="s">
+        <v>84</v>
+      </c>
+      <c r="G171">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>73</v>
+      </c>
+      <c r="C172" t="s">
+        <v>74</v>
+      </c>
+      <c r="D172" t="s">
+        <v>77</v>
+      </c>
+      <c r="E172" t="s">
+        <v>80</v>
+      </c>
+      <c r="F172" t="s">
+        <v>83</v>
+      </c>
+      <c r="G172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173" t="s">
+        <v>75</v>
+      </c>
+      <c r="D173" t="s">
+        <v>77</v>
+      </c>
+      <c r="E173" t="s">
+        <v>79</v>
+      </c>
+      <c r="F173" t="s">
+        <v>82</v>
+      </c>
+      <c r="G173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>148</v>
+      </c>
+      <c r="B174" t="s">
+        <v>72</v>
+      </c>
+      <c r="C174" t="s">
+        <v>74</v>
+      </c>
+      <c r="D174" t="s">
+        <v>77</v>
+      </c>
+      <c r="E174" t="s">
+        <v>81</v>
+      </c>
+      <c r="F174" t="s">
+        <v>86</v>
+      </c>
+      <c r="G174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>148</v>
+      </c>
+      <c r="B175" t="s">
+        <v>72</v>
+      </c>
+      <c r="C175" t="s">
+        <v>76</v>
+      </c>
+      <c r="D175" t="s">
+        <v>78</v>
+      </c>
+      <c r="E175" t="s">
+        <v>79</v>
+      </c>
+      <c r="F175" t="s">
+        <v>87</v>
+      </c>
+      <c r="G175">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>165</v>
+      </c>
+      <c r="B176" t="s">
+        <v>73</v>
+      </c>
+      <c r="C176" t="s">
+        <v>75</v>
+      </c>
+      <c r="D176" t="s">
+        <v>78</v>
+      </c>
+      <c r="E176" t="s">
+        <v>79</v>
+      </c>
+      <c r="F176" t="s">
+        <v>87</v>
+      </c>
+      <c r="G176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>165</v>
+      </c>
+      <c r="B177" t="s">
+        <v>73</v>
+      </c>
+      <c r="C177" t="s">
+        <v>75</v>
+      </c>
+      <c r="D177" t="s">
+        <v>77</v>
+      </c>
+      <c r="E177" t="s">
+        <v>80</v>
+      </c>
+      <c r="F177" t="s">
+        <v>83</v>
+      </c>
+      <c r="G177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>149</v>
+      </c>
+      <c r="B178" t="s">
+        <v>73</v>
+      </c>
+      <c r="C178" t="s">
+        <v>75</v>
+      </c>
+      <c r="D178" t="s">
+        <v>78</v>
+      </c>
+      <c r="E178" t="s">
+        <v>79</v>
+      </c>
+      <c r="F178" t="s">
+        <v>87</v>
+      </c>
+      <c r="G178">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179" t="s">
+        <v>73</v>
+      </c>
+      <c r="C179" t="s">
+        <v>74</v>
+      </c>
+      <c r="D179" t="s">
+        <v>78</v>
+      </c>
+      <c r="E179" t="s">
+        <v>81</v>
+      </c>
+      <c r="F179" t="s">
+        <v>85</v>
+      </c>
+      <c r="G179">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>154</v>
+      </c>
+      <c r="B180" t="s">
+        <v>73</v>
+      </c>
+      <c r="C180" t="s">
+        <v>76</v>
+      </c>
+      <c r="D180" t="s">
+        <v>77</v>
+      </c>
+      <c r="E180" t="s">
+        <v>81</v>
+      </c>
+      <c r="F180" t="s">
+        <v>86</v>
+      </c>
+      <c r="G180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>154</v>
+      </c>
+      <c r="B181" t="s">
+        <v>73</v>
+      </c>
+      <c r="C181" t="s">
+        <v>76</v>
+      </c>
+      <c r="D181" t="s">
+        <v>78</v>
+      </c>
+      <c r="E181" t="s">
+        <v>79</v>
+      </c>
+      <c r="F181" t="s">
+        <v>87</v>
+      </c>
+      <c r="G181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>155</v>
+      </c>
+      <c r="B182" t="s">
+        <v>72</v>
+      </c>
+      <c r="C182" t="s">
+        <v>76</v>
+      </c>
+      <c r="D182" t="s">
+        <v>78</v>
+      </c>
+      <c r="E182" t="s">
+        <v>80</v>
+      </c>
+      <c r="F182" t="s">
+        <v>84</v>
+      </c>
+      <c r="G182">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>159</v>
+      </c>
+      <c r="B183" t="s">
+        <v>73</v>
+      </c>
+      <c r="C183" t="s">
+        <v>75</v>
+      </c>
+      <c r="D183" t="s">
+        <v>78</v>
+      </c>
+      <c r="E183" t="s">
+        <v>81</v>
+      </c>
+      <c r="F183" t="s">
+        <v>85</v>
+      </c>
+      <c r="G183">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>160</v>
+      </c>
+      <c r="B184" t="s">
+        <v>72</v>
+      </c>
+      <c r="C184" t="s">
+        <v>76</v>
+      </c>
+      <c r="D184" t="s">
+        <v>78</v>
+      </c>
+      <c r="E184" t="s">
+        <v>79</v>
+      </c>
+      <c r="F184" t="s">
+        <v>87</v>
+      </c>
+      <c r="G184">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" t="s">
+        <v>73</v>
+      </c>
+      <c r="C185" t="s">
+        <v>74</v>
+      </c>
+      <c r="D185" t="s">
+        <v>78</v>
+      </c>
+      <c r="E185" t="s">
+        <v>80</v>
+      </c>
+      <c r="F185" t="s">
+        <v>84</v>
+      </c>
+      <c r="G185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" t="s">
+        <v>73</v>
+      </c>
+      <c r="C186" t="s">
+        <v>75</v>
+      </c>
+      <c r="D186" t="s">
+        <v>78</v>
+      </c>
+      <c r="E186" t="s">
+        <v>81</v>
+      </c>
+      <c r="F186" t="s">
+        <v>85</v>
+      </c>
+      <c r="G186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187" t="s">
+        <v>73</v>
+      </c>
+      <c r="C187" t="s">
+        <v>75</v>
+      </c>
+      <c r="D187" t="s">
+        <v>77</v>
+      </c>
+      <c r="E187" t="s">
+        <v>79</v>
+      </c>
+      <c r="F187" t="s">
+        <v>82</v>
+      </c>
+      <c r="G187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>151</v>
+      </c>
+      <c r="B188" t="s">
+        <v>73</v>
+      </c>
+      <c r="C188" t="s">
+        <v>76</v>
+      </c>
+      <c r="D188" t="s">
+        <v>78</v>
+      </c>
+      <c r="E188" t="s">
+        <v>81</v>
+      </c>
+      <c r="F188" t="s">
+        <v>85</v>
+      </c>
+      <c r="G188">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>179</v>
+      </c>
+      <c r="B189" t="s">
+        <v>72</v>
+      </c>
+      <c r="C189" t="s">
+        <v>76</v>
+      </c>
+      <c r="D189" t="s">
+        <v>78</v>
+      </c>
+      <c r="E189" t="s">
+        <v>81</v>
+      </c>
+      <c r="F189" t="s">
+        <v>85</v>
+      </c>
+      <c r="G189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>163</v>
+      </c>
+      <c r="B190" t="s">
+        <v>72</v>
+      </c>
+      <c r="C190" t="s">
+        <v>76</v>
+      </c>
+      <c r="D190" t="s">
+        <v>78</v>
+      </c>
+      <c r="E190" t="s">
+        <v>80</v>
+      </c>
+      <c r="F190" t="s">
+        <v>84</v>
+      </c>
+      <c r="G190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>166</v>
+      </c>
+      <c r="B191" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" t="s">
+        <v>76</v>
+      </c>
+      <c r="D191" t="s">
+        <v>78</v>
+      </c>
+      <c r="E191" t="s">
+        <v>81</v>
+      </c>
+      <c r="F191" t="s">
+        <v>85</v>
+      </c>
+      <c r="G191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>143</v>
+      </c>
+      <c r="B192" t="s">
+        <v>73</v>
+      </c>
+      <c r="C192" t="s">
+        <v>75</v>
+      </c>
+      <c r="D192" t="s">
+        <v>78</v>
+      </c>
+      <c r="E192" t="s">
+        <v>80</v>
+      </c>
+      <c r="F192" t="s">
+        <v>84</v>
+      </c>
+      <c r="G192">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>153</v>
+      </c>
+      <c r="B193" t="s">
+        <v>73</v>
+      </c>
+      <c r="C193" t="s">
+        <v>74</v>
+      </c>
+      <c r="D193" t="s">
+        <v>78</v>
+      </c>
+      <c r="E193" t="s">
+        <v>79</v>
+      </c>
+      <c r="F193" t="s">
+        <v>87</v>
+      </c>
+      <c r="G193">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>170</v>
+      </c>
+      <c r="B194" t="s">
+        <v>72</v>
+      </c>
+      <c r="C194" t="s">
+        <v>74</v>
+      </c>
+      <c r="D194" t="s">
+        <v>77</v>
+      </c>
+      <c r="E194" t="s">
+        <v>81</v>
+      </c>
+      <c r="F194" t="s">
+        <v>86</v>
+      </c>
+      <c r="G194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>170</v>
+      </c>
+      <c r="B195" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" t="s">
+        <v>76</v>
+      </c>
+      <c r="D195" t="s">
+        <v>78</v>
+      </c>
+      <c r="E195" t="s">
+        <v>81</v>
+      </c>
+      <c r="F195" t="s">
+        <v>85</v>
+      </c>
+      <c r="G195">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>173</v>
+      </c>
+      <c r="B196" t="s">
+        <v>72</v>
+      </c>
+      <c r="C196" t="s">
+        <v>76</v>
+      </c>
+      <c r="D196" t="s">
+        <v>78</v>
+      </c>
+      <c r="E196" t="s">
+        <v>79</v>
+      </c>
+      <c r="F196" t="s">
+        <v>87</v>
+      </c>
+      <c r="G196">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>176</v>
+      </c>
+      <c r="B197" t="s">
+        <v>72</v>
+      </c>
+      <c r="C197" t="s">
+        <v>76</v>
+      </c>
+      <c r="D197" t="s">
+        <v>78</v>
+      </c>
+      <c r="E197" t="s">
+        <v>81</v>
+      </c>
+      <c r="F197" t="s">
+        <v>85</v>
+      </c>
+      <c r="G197">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>164</v>
+      </c>
+      <c r="B198" t="s">
+        <v>73</v>
+      </c>
+      <c r="C198" t="s">
+        <v>75</v>
+      </c>
+      <c r="D198" t="s">
+        <v>78</v>
+      </c>
+      <c r="E198" t="s">
+        <v>79</v>
+      </c>
+      <c r="F198" t="s">
+        <v>87</v>
+      </c>
+      <c r="G198">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>172</v>
+      </c>
+      <c r="B199" t="s">
+        <v>73</v>
+      </c>
+      <c r="C199" t="s">
+        <v>76</v>
+      </c>
+      <c r="D199" t="s">
+        <v>78</v>
+      </c>
+      <c r="E199" t="s">
+        <v>81</v>
+      </c>
+      <c r="F199" t="s">
+        <v>85</v>
+      </c>
+      <c r="G199">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>161</v>
+      </c>
+      <c r="B200" t="s">
+        <v>73</v>
+      </c>
+      <c r="C200" t="s">
+        <v>75</v>
+      </c>
+      <c r="D200" t="s">
+        <v>77</v>
+      </c>
+      <c r="E200" t="s">
+        <v>80</v>
+      </c>
+      <c r="F200" t="s">
+        <v>83</v>
+      </c>
+      <c r="G200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>167</v>
+      </c>
+      <c r="B201" t="s">
+        <v>72</v>
+      </c>
+      <c r="C201" t="s">
+        <v>76</v>
+      </c>
+      <c r="D201" t="s">
+        <v>78</v>
+      </c>
+      <c r="E201" t="s">
+        <v>81</v>
+      </c>
+      <c r="F201" t="s">
+        <v>85</v>
+      </c>
+      <c r="G201">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202" t="s">
+        <v>73</v>
+      </c>
+      <c r="C202" t="s">
+        <v>75</v>
+      </c>
+      <c r="D202" t="s">
+        <v>78</v>
+      </c>
+      <c r="E202" t="s">
+        <v>80</v>
+      </c>
+      <c r="F202" t="s">
+        <v>84</v>
+      </c>
+      <c r="G202">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>175</v>
+      </c>
+      <c r="B203" t="s">
+        <v>72</v>
+      </c>
+      <c r="C203" t="s">
+        <v>76</v>
+      </c>
+      <c r="D203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E203" t="s">
+        <v>80</v>
+      </c>
+      <c r="F203" t="s">
+        <v>83</v>
+      </c>
+      <c r="G203">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD1472-A76B-440F-B244-6A493DBF1D80}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/artifacts.xlsx
+++ b/artifacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陽陽\Desktop\測試\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16FA6B4-B9D6-4D38-839A-4EA2335528D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA10C6D-4CDA-4AC6-9620-4FF09427613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5037,7 +5037,7 @@
         <v>72</v>
       </c>
       <c r="C175" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D175" t="s">
         <v>78</v>
